--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/54_Kütahya_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/54_Kütahya_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E270EC52-2571-4947-BF4C-6DB9DE2AFF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04230410-D0C7-4FF3-9A65-A05313DBF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9FDD3B9-E1D5-4CBB-A43D-96CE9246D93B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E4CA2E9-D5CC-48A4-BC9B-11DC9689F4D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F5E8EA58-480B-4C4E-B899-1089FFC61671}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{808B0F97-4D08-4F03-83DE-9A1101B57B69}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{07DA987E-3529-469A-9E8F-353CEE8DA45A}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{FC1D3BE5-E2E5-4EEA-BFFF-F73DFCE6BD91}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{7258EECA-4C93-4130-AF08-3B27DDEBFDE5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{6B892049-E4E3-4985-B812-BC58977722F9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{18E3C157-91EB-46A5-B3D3-F7FDBCEAC3EB}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{557BAC3B-1098-4F71-8EC2-7DC8D4212370}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450232C0-6175-4289-BE00-11A9D746191E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC2BCD0-847B-4917-98BA-A3FF90E6E8F3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2445,18 +2445,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BC1FE5DF-D58B-4184-A305-4DE4257F2DD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AB56E263-75FF-46AB-B47D-F20BFE6F0E1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F0281E0F-D824-4E28-A54D-7D29A1A97081}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{403ED88E-9A7B-4F21-ADDF-8C060DC02B64}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07F92AFC-5A93-4E6D-AFE2-07AC47A84950}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13E57544-88DB-4F4D-BE9C-B0715E13F47F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4BD8D253-7597-41C8-8956-B06427FDE63A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A7A693E9-5682-4265-B594-D4F4FC27E728}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A08AC2A-E122-4470-A5B4-6B2628FAC628}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{86256F58-1ACE-4E68-B72B-08E0A6F9AC59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9F75401-4717-4111-A56D-08FD11AB453B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FF2BCA4C-2200-401B-B62F-842FE4E8E0AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E0856FFB-845C-4C19-9F03-B0577C1CAAE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A74731ED-490D-4D84-AAAF-959242463ED1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9667E06B-29BE-4FE6-BA9F-949114459231}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B351D43C-0F1F-48B1-A932-D1C49A9B2986}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AA217155-A5AF-496A-8739-70C4DB3F1890}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6AD01EA4-A971-433B-99B7-1DAC328B54C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{06F37D4A-06C5-4AE7-AEBB-F7DB6F51B2F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD0DE40E-D3C3-439D-AD1D-9ABA6E26FF4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B6089877-F926-40FC-A58C-13A7D69A5D29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{743E9464-195E-4DE4-A438-8CFE19C543C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30267078-FB43-4F0F-BC9E-BAB03907C039}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{25AF1915-6A26-4759-9AAF-4A385B68F166}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2261ADB-C93B-40AF-AC19-42B5539080FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D64F49-984A-4E7F-8971-81A6919085CE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3664,18 +3664,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AEDCA2C3-B773-4771-8F23-2AECFB699B11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1E2ADA08-12F9-48F9-9E98-9F3309E3042B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DEF4651A-7B2E-4393-AA2C-5574B31A5365}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{981DCDE3-524B-47D9-B71F-B338CF81EA57}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{765F3564-E8C0-41C8-AF0A-9F27E04B9E5E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{771EF8F8-AEDF-4E1B-831D-8E35FD0B1E5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B917C3AB-B4A5-4E21-8597-9796345650DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A4479BC4-C7D3-4196-9722-4B193ACDFED5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{983229AF-271C-4A61-B27F-64D6DB89529F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7137CD29-77BA-4258-BF0E-BC2669261464}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{377834E3-E8AB-4D55-876F-7EBF0C0B40FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5DFEA37-6E9B-4374-A1CE-B68AC22B739C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8F7DBFA0-B415-4CCE-9DA3-93151215613D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{66DCF00B-298E-4AC3-8DC8-1692C8B2BA8A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{73AA2688-96A7-4785-A2A8-2AB45213B763}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8F0A4C6-50F3-4EEA-A095-FD4D9DFE460A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C02A4CAA-FC16-4951-B920-990A3C43B4F0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C28CA6C7-C075-4454-924D-6E7E8803C9BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{49D33B71-EDC6-4DF5-90F3-AF9C5B630F85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3FB93C5C-4B83-46D1-8CF4-66A6125C75DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2A5C385F-C3B2-4B86-BAFC-DEB170E49891}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EBAC0F12-0A38-4C86-AA3D-61921A0A8CE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FAA4A02C-7550-4651-938F-41599B45A3AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8AFB21BA-AF0D-472F-9EAC-302BD8216C0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3688,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2AC6D8-378F-40DA-A65C-DB0C91D1A27F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E712F26-76F7-4383-843D-AA44B47D7642}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4867,18 +4867,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2FE686B9-129A-4C76-8E8F-4B2616318173}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{62053B95-6869-49F4-82FA-9455A0E91B59}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{56594FA2-3163-4B84-9610-9C96D1F343AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A6AC9F5-4657-45FE-AA9D-19D5765CBDF3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{98F844C6-F78C-4D05-BC14-4B1F76BECF4A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F84604BC-E63B-4549-AF37-479E7652ECF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AEAB1902-A963-4D71-8ACD-C657F1554C5F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{82BEA7E5-3A11-4045-A785-6E53FDC248A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{801F8B01-9454-4945-9497-3971F6BAFA39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A65EF905-AFCC-4F8D-95AC-B41CB6DC4BBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{85B85A8C-1F30-44D4-B6E3-561A07900344}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7230E64D-B2DA-4EB3-A185-C4A6C8ACF42F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F8BFFD6A-CFE5-4E78-9898-35791573E500}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{92E356C6-0BC7-40CF-905C-DCC4367087AE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A4239BA-0B0D-4774-A8A2-B38A38F025FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3ADC19D7-A529-4DED-8873-9C72BBD12240}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{76DB4F9E-1058-417C-A8C2-2CDD9215C90A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3C4D922A-79E7-4BCF-87A6-2A08F74B48E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{40D1812B-64F0-43AB-A04A-42B504454C3D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{65899624-4D5E-4D16-BC7C-40C6E787901A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{719932FF-AA60-4EBC-8810-E1743C3FDBB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D475998B-6850-4D1C-B0BE-A3AA8EB82B32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31BEA1C2-6901-47C0-BBD2-5C26C185A1E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{88B0425B-174E-427C-82DA-67371875E7CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4891,7 +4891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428FB7-7997-4797-B674-19E83A0C6792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37146BFE-9F18-4797-BBBA-4C479CB9344C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6060,18 +6060,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A968149-1AC3-40CE-AF82-4918D1F57F27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{11251032-24D9-4142-A789-5CCC77E161C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{138258E7-3D84-4941-A74D-38C8D673F44F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FB1DE751-4B0C-4FA4-A6A7-06DEE8A0B2A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DCFFEFD8-C832-4C82-B9E0-C01314CE6EBE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CDA6C395-252C-465E-8CEC-1929FFE32F27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6098BE10-8F8E-45C9-9D87-04E62F168773}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14F36A9A-0326-4B5A-A82A-096B51C025DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F3559F27-7B15-4D77-87D9-B44D40BDE676}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D80FDB2C-236A-4709-BCD0-A9EC243091D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{98E6D4A0-6EAE-42A7-8134-DEE377D969ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2147768B-C9BF-42F2-8F67-95739BF2551B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{75C29583-5483-4208-B15A-13AA2E49DD94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5AAFE182-4E80-4953-851B-7B4294F42643}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{905518D6-1C7E-4EB7-92D0-7B2A1935AE13}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{69BEFC0D-8A26-4FEB-A9D0-40904B72AE0D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A07CE20F-C5B8-4CE8-ADE0-EB9F36FD0772}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{376670CB-89CE-4700-9F9C-0869B57945F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{435578F6-80F1-4D11-AAE8-50FBD3018228}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AC240FC0-0287-43EF-9856-7BF827125B99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{766CAEE8-D96E-4BB0-A1F3-0C3F695CE812}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8AC43359-1D7E-45E1-A3BA-9CED2003A44E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B513DA6-3AE8-4DAD-AA5B-0D5F60A21E39}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{94FE896A-3E33-43FB-B747-ED82948846A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6084,7 +6084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CA32FA-0388-4E81-9E02-1E3F64C269A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BE7E03-F71C-4F0C-BC1F-740197A2A3D8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7301,18 +7301,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FCEF2AC3-0CF1-4947-AD13-EA6325ED496E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1A9D5DCC-799B-4402-8E15-89CD9714C1D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{598852D6-B0B7-439C-B206-51F5AB50DF85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{097DB80B-E46C-4B69-9406-038FC71B7559}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{472E54B3-8A93-45E9-9CAF-F095A0D4BC81}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DC70B950-69FD-4A49-8BC9-CE44F931514C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{802E74AE-0584-4C99-BE79-3BC5B9786FF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7B16CEDE-66EE-4398-961C-2647A0166419}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EBD7B91C-A9E0-4FF6-8E78-D4FA88E16E9A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{09AC425C-CE33-41E1-BD53-C2EF02D7A1E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{95C2FDAC-9AF4-426F-B9F2-33EE4EF7E396}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8D27B2A3-4470-475A-B632-515E7948A3DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B0A205B6-E4B9-456B-B960-8088BFD5AB81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F7F49A99-6099-4DA4-B034-833C41095133}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{690D2A1A-A2E1-4A0D-8959-23D52547099C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6D62681E-F829-4168-AF6D-783B48FAF9C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{44FD2C54-D529-41B0-A705-DB33B5F3BE70}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4BF13EF9-C512-42B1-8972-F4EE287E54E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{99EED923-4EFB-4BE4-8F90-BBE95792DF9E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7B7B67A5-F454-4952-A23A-76B495815D1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76D6D870-8B83-4AB7-B963-A55B5C58A70F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3013CA49-46D7-4F5C-A57D-0F6A46F64D00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E01131E3-D281-4E3D-B403-3EAEF3FF726C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2BAEBDA4-2230-44F0-96D0-623DD4326925}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7325,7 +7325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE867D51-83EC-4AFB-9961-777A2D744634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C184BAA-64DB-4D9D-9378-52AC36BFAFA1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8542,18 +8542,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9A36E208-869B-458F-B209-7668229C9934}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D213F5B9-C56A-47E5-B7BD-2C87ECE72112}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{99D1C706-F66F-4FF3-9B80-6EB3EBC1658B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{286C8BE8-F7D8-4736-8768-47554D4190A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D62455C0-BCE7-4FD4-873F-34D9BF10AD57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D8CFC1CE-9552-4313-A064-884DFA3835AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7D06CA8-13AE-4ADA-984E-C5217458EFF0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C717035A-7475-4764-A22E-4F30FAFF3EF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D294EF95-15B7-4F69-AC3D-4A2FADC0098B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{75F0A4F7-F6C3-4A22-892C-4CC593DB5FAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1D02290B-3F05-420A-BCE9-26F00B6A90EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DCF810AD-4524-4B80-BD87-250D50D397E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ED001713-DE3D-4078-834E-7B39E77D8C6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4F599229-100C-42A3-BAC7-B922AB80E31F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5B7014A0-7168-4BD9-B4AA-5D479992C219}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{941A046A-914D-4C3D-A55F-55D6C8D29118}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{97EBDB35-0BFC-4923-BFD9-BC5F699D6135}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9AB364A2-6EE8-45CF-A72D-96B74C577E66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C66C3F7-2A55-4EEA-AFCC-634BBE524CD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{47D58D67-92A5-420F-8C94-85FD7522C242}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5AA38D28-2EB9-446E-BF97-934915E8C9F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF8B1ACC-5F4E-4C63-9363-300C22E0D9C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DAD3FEAE-C04F-4573-AD65-BA3B3016B9B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D340DE4-4202-49BB-AF4A-B4E5DEC24FF3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8566,7 +8566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6676A0-8460-4969-B516-7EE8B9A6D5B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7DE0CC-9A0D-4F0D-96E6-52EE47D1F95C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9783,18 +9783,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E50E78BC-D1C4-4BBC-B20A-20C546B64CDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3ADD1CEE-9CBF-4C22-A5A6-9EDEE6F8A210}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A51F1FE4-ED31-401E-A137-B2EA5BC92A59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F968F6C5-F093-4D9C-86DD-B60157959DA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08CC370E-6AA6-44E0-9FED-371774B83E71}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1CFC7933-EE32-4EC7-80C9-085DEE4F3032}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ED2D8B5D-0E89-4C98-88DF-71AF57F3E835}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F5DBD5F4-C1D1-4E36-B16A-D823CD2E11B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA1AE8F6-79E7-436F-8243-9FDB6A1515C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EEC1600E-A455-4C77-8B5F-83421455A1C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C3FE6DE9-3E0A-4872-A047-CE6877374B2D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC803EE9-612C-482A-A1DF-89DF6DD730C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{623603D2-351E-4472-B1DC-7232F6FAFAE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A1F79542-B6E5-4041-8705-A9C1A4344AF2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{988AA50D-4A95-48A0-8CF0-CCB19781967E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C33BCF0C-6F3F-4C9C-A551-C08D4D6D8488}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1CD32E10-4D0E-451B-90BF-0FD0D6F35AD6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{318DFC31-A4E5-4A2D-BD46-6B0E15D1B028}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{818BC559-B32F-4948-81B4-20E65787F12B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15C71778-DB02-40F4-B27A-9AB4B20F298D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1F2C3D04-809E-4364-B9A2-55008A09013B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F08EC13F-E69E-43AB-BDCF-CBEF0C5BB49B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{45EE8575-CDBD-4FE6-83A8-70A7121094AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D8CD6CA-58F4-4571-BECC-A8734D02E713}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9807,7 +9807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCC2AF8-E381-4BF4-BA2D-1A1D3796B352}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA60A44F-CA25-43ED-AA0D-0F2B135EDD38}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11022,18 +11022,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5768B2B9-ED1F-4A69-8C0C-648D86A6293C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0A141267-C3D3-4AFD-8E15-4FFBABFEED12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{76ACEC12-642C-46DA-B7B2-65EBC66B1DBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F314ABEA-8C5E-43CA-8E08-928184E60D5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{52AE4BEA-9931-47C2-A38C-980CE97DFC21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C73E2EE6-7855-4CF2-B3CB-C95B2F524989}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D373855-2B0F-423C-8070-69B20D3CD92D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{87064F56-4B6A-4BA0-9085-FFEBE4AF4B7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A027090F-CC7A-447F-8DB2-DC56187B88B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AB6CA752-FB3F-4C89-9C94-D70073C17FC8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ED923FBB-3E44-4821-9AB2-A50BCCCCD433}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{55318621-D6AB-4FBC-BF59-1DF6C26BDCEA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{06D45F6C-A1E2-4C4A-9BD3-3567A1BC5123}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{144780EF-27FB-43AE-AE79-64DFBA83880D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1B19C100-668F-4D83-A70D-17F9F3DE8065}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{34872880-02D8-40BD-AC0B-1795A28852F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B4437E7-B18B-4712-87CD-9B25BFD4AA87}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{680995E7-01B6-4CAB-8EC5-0ACB6DC281BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B411ACBE-0AAC-4E18-BBDE-ED8EC954AFAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3DC1A1AB-1BCE-417E-A5AC-A7EC705A44A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A7A61923-A32A-4312-BC4D-5A2F21685DAA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ECBE1F65-C7B6-4684-B5C8-A7A518258CAA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2D1BE67D-8BFC-4575-BAF8-F6DF87CF83A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1CFCD87B-D042-45C1-BE0B-EC54585CBA67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11046,7 +11046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CE901A-8BAF-4674-ACF1-6EBE3702375B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C4BA5F-EA45-4D6A-B854-9A7DE6AB520F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12257,18 +12257,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FF95C13F-B62E-4923-9946-EC6E4F7D0DC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B2CD39E-B450-4CC8-ADF5-327155C43729}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B69CFA28-54EC-4680-93CA-CBF60CFA8DE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{94859C60-5BC5-4D0E-85AD-8E0C76AF3BDD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{80D2FBC7-9941-46BD-83B8-35F131D56E73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A2A25ED-5C1E-4B44-A44D-035C35909A06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB97A19A-84FB-495B-87CF-EE79179925D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D43E00FD-9F93-4C6C-A669-51AB332C22CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF7A1209-DCAD-4D6F-B3A4-7F4AFD2408A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B589C624-526D-4B1F-8D58-0350775F6446}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EC7A795D-E968-4FC4-8601-E5F88D754E34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DA721392-3125-41AB-92AB-C1A6BD1E9F5F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{91479564-7ADF-48A4-B427-D634C2D20980}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F793C3B7-9FA2-4BD7-AF18-A8716C366F2F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4AE1206D-92D4-4203-86BD-B437AF2B57E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B68FAC3-2839-4C83-BA61-9C4A4C31E185}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{18E43AB1-8CDC-421C-8141-2D9F14440740}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B1D8E9E9-9BE1-4243-9990-F52C46A21681}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA68E39F-C760-4F18-81A5-60D7637E557F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D2899C93-3A4E-4464-952E-2530A86FFD8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76CE0E88-F58C-4DC4-8EA7-4A681A607503}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BF97239B-9F37-40FB-9037-16867EA4AF62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0CC79FD3-A5F3-4C8E-BCF4-6A72E33B3608}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{48714D31-8C1A-4559-8389-5ECD313DFB75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12281,7 +12281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06190E1-6AA8-45E4-8ABD-D6678BEA648C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDCEDFF-19CD-4107-89F8-215F406C3BCA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13488,18 +13488,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4073202D-70F7-438D-8B39-405CAE535490}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E68753E8-CBD0-4E35-9000-928B090938BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{475B842F-468E-4F87-A2F2-AA7DE2A6ECA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0DEB2B23-926E-4FD9-90D2-F461D894EA13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{709634CA-21C2-4D5A-A4D5-8DA2762B5300}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4DE57703-A39F-4883-B906-195435CCACC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D6166D08-CB49-4A4F-94DA-7DEADF67A23E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E7E5A191-381B-4762-85EA-15A7AFFD32ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{817E85E8-7311-48D6-9536-9E4BF7800732}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{40BE380A-AF5D-4BD6-8AA3-73733465D610}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D88C86C0-2C46-4C58-9A6B-C97010CA396B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B0F106E6-9141-4F03-BFC3-12979DFA3C32}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B17651C8-0906-4BC4-A877-E66AD06A20F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{39CC3601-02A5-4E44-90A8-5106952B5687}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F60167E-34A6-4EB0-8026-9DFB29ACDD7C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D1FAA2D1-1573-44B6-951E-A3BCE3F14364}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A551FF6-33B5-486E-989F-6C8E71CF8EFA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{291AD1A7-E780-4A00-8F19-1685214267D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D111AE61-8B03-40F2-BAC9-498BF77AE903}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ECDA7D65-5823-45FA-8158-65EB086A4BDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1E75FC54-4CEB-45ED-9E36-3D2835D416BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DE9105D6-D4BB-4065-A3E6-F49A9243C6F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{93CAEAD5-1F98-411B-A918-62F14E7CFAB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{322D0BE7-3DE5-4F87-9B3C-D7F713B9C0FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13512,7 +13512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1597268F-39F1-4955-B74A-D5AED437AFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA18A85E-96F4-4D9E-985F-8DA1CFC18B8D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14719,18 +14719,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4BF7AA6C-02C2-4425-97B9-240380776B49}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{844B4F42-44B5-401F-8471-371928EEA27F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6EF1C2F3-0E44-4DFF-A947-73F5F1E406CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73E1D327-5185-4AB9-9449-B50685201BB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1142C37C-DE5B-430D-A6DB-520F264F3C1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4C61D75A-41E1-4E7C-95C7-0C76235CAEA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{20B0372E-6605-4DF8-AD17-559CEDF2BE6B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74162B97-2805-4921-A4CF-4C29561B0B6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B5563CBA-C712-4782-AF39-148BD3E960D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{75A4F68F-2C82-43B0-A175-E229D45E7A67}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0B4BFB9E-8B71-41F2-9825-52D00927DDC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2725E526-F18B-4D2D-91A4-70D3E1CC87A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F667574B-9D78-491D-81D7-5D55307056F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DFA33353-3733-402C-BA14-C21365298F09}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C6C42B4F-7FA1-44C6-BE27-E849861EEDEF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{283EC8E4-8CDF-440D-B00E-FBDC28DD13BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4CD8A3CC-9911-43F7-A418-921D83CCC43F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BE73AA4B-60E0-40FA-B770-C8A5553B834C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F7E3860-CE7E-4EA5-AA17-29BE02A7AFAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{29C8A81F-085A-490F-B08F-A2C9D0C848A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B7082647-8DF5-427A-BA6F-FE250DA744AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FBBF8BDA-7FAE-4E67-A822-2CE6A9A1A2BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C941476E-7EDB-4812-9D2B-ABC2331D9D04}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5583FB78-BE47-4D78-8DDA-06529FEF781F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14743,7 +14743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9039C3-92A7-4C43-A9B1-31C4C88C4A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87560AB8-ACF4-4CE2-B6A1-8A1451880537}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15946,18 +15946,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B64B4E6-7028-4D65-8069-AB17267C59E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{90B43106-17FF-443B-9D60-24E3461E7758}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5072AA0E-C1FA-460C-9A76-2D7866825E2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{29C3BA08-9071-487D-A579-B6AE762A442F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{759B2B14-0248-4C50-85D9-4BBC35B497C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{344F954F-202C-4480-873C-9B55560024C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3F1EE90D-3D33-44C5-B7B0-7800F704E165}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{35E4C7F6-D3A2-4097-9920-DC34748E49C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D4F7C9F2-8DE4-490C-91E0-FEBD3A36F5FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E87689E2-DA37-45E8-8877-CEE252295898}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{42300642-92E9-4FCD-A90D-34C8895D75CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7142194D-A139-4EEB-81E4-D8EAADB51877}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2A5D394B-3315-41A2-BD34-579D441DCD0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{11829F58-E106-488A-BDFA-CB9C47C0C2FF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3D3E0A8A-9827-4633-84E7-17140F415477}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64A7F02C-F479-4380-ABB3-475B51E576CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FE5B9BF3-D728-4367-BBF7-6D8C7BED6C1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2D9D089F-C81B-424D-97D8-9BD8675097BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5A53BD1C-30BE-41DA-BC9E-288101AB785E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0E4D8F6D-75AA-4136-951A-BAF0B9E89A84}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C2930F26-F94F-4F4E-98B7-E7D8E429E282}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1FD5BB80-4D7A-4CB6-8765-E89B965BCD44}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE5C6E66-3F00-4869-AF98-587FA5711465}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{25110AE0-421D-4D67-9D51-105CBED5A60E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
